--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -75,6 +75,52 @@
   </si>
   <si>
     <t>Lose it!</t>
+  </si>
+  <si>
+    <t>Cause 2</t>
+  </si>
+  <si>
+    <t>ccsc</t>
+  </si>
+  <si>
+    <t>Denied</t>
+  </si>
+  <si>
+    <t>M 2</t>
+  </si>
+  <si>
+    <t>sdsdvs</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Electricity Consumption(Electricity Source:Battery)(Electricity Source&lt;Battery Explosion&gt;:Battery)</t>
+  </si>
+  <si>
+    <t>Battery explode and damages it surrounding.</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H2</t>
+  </si>
+  <si>
+    <t>Bad batteries.</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.1875</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something damages the batteries.
+</t>
+  </si>
+  <si>
+    <t>0.0625</t>
   </si>
 </sst>
 </file>
@@ -82,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -99,8 +145,17 @@
       <name val="Liberation Sans"/>
       <sz val="12.0"/>
     </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <sz val="12.0"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +188,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,12 +226,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -189,11 +256,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.48046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="80.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="87.171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.15234375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.75" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="7.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.546875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.66796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.96484375" customWidth="true" bestFit="true"/>
   </cols>
@@ -282,6 +349,142 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="5">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s" s="6">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToWidth="1" fitToHeight="1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -83,6 +83,15 @@
     <t>ccsc</t>
   </si>
   <si>
+    <t>45.5454454544545</t>
+  </si>
+  <si>
+    <t>44.346</t>
+  </si>
+  <si>
+    <t>2019.75832412324</t>
+  </si>
+  <si>
     <t>Denied</t>
   </si>
   <si>
@@ -107,10 +116,13 @@
     <t>Bad batteries.</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.1875</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
   </si>
   <si>
     <t>test</t>
@@ -118,6 +130,9 @@
   <si>
     <t xml:space="preserve">Something damages the batteries.
 </t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
   <si>
     <t>0.0625</t>
@@ -238,7 +253,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -257,9 +272,9 @@
   <cols>
     <col min="1" max="1" width="8.48046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="87.171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.2734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.75" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.1484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.2734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="7.546875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.66796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.96484375" customWidth="true" bestFit="true"/>
@@ -357,22 +372,22 @@
         <v>22</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -385,10 +400,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -404,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -412,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="5">
         <v>8</v>
@@ -438,25 +453,25 @@
         <v>14</v>
       </c>
       <c r="B14" t="s" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s" s="6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s" s="6">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s" s="6">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s" s="6">
         <v>19</v>
       </c>
       <c r="H14" t="s" s="6">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -464,25 +479,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s" s="6">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s" s="6">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s" s="6">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s" s="6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="8">
         <v>18</v>
       </c>
       <c r="G15" t="s" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s" s="6">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -83,15 +83,6 @@
     <t>ccsc</t>
   </si>
   <si>
-    <t>45.5454454544545</t>
-  </si>
-  <si>
-    <t>44.346</t>
-  </si>
-  <si>
-    <t>2019.75832412324</t>
-  </si>
-  <si>
     <t>Denied</t>
   </si>
   <si>
@@ -116,13 +107,10 @@
     <t>Bad batteries.</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
   <si>
     <t>test</t>
@@ -132,10 +120,7 @@
 </t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.0625</t>
+    <t>0.125</t>
   </si>
 </sst>
 </file>
@@ -272,9 +257,9 @@
   <cols>
     <col min="1" max="1" width="8.48046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="87.171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.2734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.15234375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.75" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.2734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="7.546875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.66796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.96484375" customWidth="true" bestFit="true"/>
@@ -372,22 +357,22 @@
         <v>22</v>
       </c>
       <c r="C7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="G7" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="H7" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="F7" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -400,10 +385,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s" s="6">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -419,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="6">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -427,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s" s="5">
         <v>8</v>
@@ -453,25 +438,25 @@
         <v>14</v>
       </c>
       <c r="B14" t="s" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s" s="6">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s" s="6">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s" s="6">
         <v>19</v>
       </c>
       <c r="H14" t="s" s="6">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -479,25 +464,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s" s="6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s" s="6">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s" s="6">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s" s="8">
         <v>18</v>
       </c>
       <c r="G15" t="s" s="6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s" s="6">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
